--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_3.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_3.xlsx
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0006933415818243429</v>
+        <v>0.0006933415818243427</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5606967745747774</v>
+        <v>-0.5606967745747773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.43803568085028</v>
+        <v>0.4380356808502799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005840853736533899</v>
+        <v>0.0005840853736533915</v>
       </c>
       <c r="I2" t="n">
         <v>0.0001901441407514879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.43803568085028</v>
+        <v>0.4380356808502799</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.006415302438046604</v>
+        <v>-0.006415302438046605</v>
       </c>
       <c r="F5" t="n">
         <v>26.68565202280593</v>
@@ -615,7 +615,7 @@
         <v>-0.3400850168277622</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006841549052612011</v>
+        <v>0.006841549052612006</v>
       </c>
       <c r="I5" t="n">
         <v>0.002290151334422958</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.001285901749736107</v>
+        <v>0.001285901749736106</v>
       </c>
       <c r="F6" t="n">
         <v>6.781707234915837</v>
@@ -651,7 +651,7 @@
         <v>0.3188849338975481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01660235004890677</v>
+        <v>0.0166023500489068</v>
       </c>
       <c r="I6" t="n">
         <v>0.0005201044905045438</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.0005619850101946411</v>
+        <v>-0.000561985010194641</v>
       </c>
       <c r="F7" t="n">
         <v>1.201524146012959</v>
@@ -720,16 +720,16 @@
         <v>15.08378539671236</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2920250046701493</v>
+        <v>-0.2920250046701494</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02021504575793432</v>
+        <v>0.02021504575793428</v>
       </c>
       <c r="I8" t="n">
         <v>0.003453024347381794</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2920250046701493</v>
+        <v>0.2920250046701494</v>
       </c>
     </row>
     <row r="9">
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.000587546454502988</v>
+        <v>-0.0005875464545029879</v>
       </c>
       <c r="F9" t="n">
         <v>1.376095555617348</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2807648497831705</v>
+        <v>-0.2807648497831704</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03277407591411492</v>
+        <v>0.032774075914115</v>
       </c>
       <c r="I9" t="n">
         <v>0.0002683957365328095</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2807648497831705</v>
+        <v>0.2807648497831704</v>
       </c>
     </row>
     <row r="10">
@@ -789,19 +789,19 @@
         <v>-0.0005648799048548748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8548771674065023</v>
+        <v>0.8548771674065022</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2588850541271077</v>
+        <v>-0.2588850541271076</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04217804701852339</v>
+        <v>0.04217804701852344</v>
       </c>
       <c r="I10" t="n">
         <v>0.0002720879735441819</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2588850541271077</v>
+        <v>0.2588850541271076</v>
       </c>
     </row>
     <row r="11">
@@ -1218,22 +1218,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.0002587917439989691</v>
+        <v>-0.000258791743998969</v>
       </c>
       <c r="F22" t="n">
         <v>2.223145863704297</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1971798073133394</v>
+        <v>-0.1971798073133393</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1213873744645182</v>
+        <v>0.1213873744645184</v>
       </c>
       <c r="I22" t="n">
         <v>0.0001647448689352168</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1971798073133394</v>
+        <v>0.1971798073133393</v>
       </c>
     </row>
     <row r="23">
@@ -1260,16 +1260,16 @@
         <v>7.612573466943139</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1951413273006553</v>
+        <v>-0.1951413273006552</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1385749733266587</v>
+        <v>0.1385749733266588</v>
       </c>
       <c r="I23" t="n">
         <v>0.002280819225054598</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1951413273006553</v>
+        <v>0.1951413273006552</v>
       </c>
     </row>
     <row r="24">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.000660082002440078</v>
+        <v>-0.0006600820024400777</v>
       </c>
       <c r="F28" t="n">
         <v>6.438164283111782</v>
@@ -1443,7 +1443,7 @@
         <v>-0.1546794840039375</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2339394114738026</v>
+        <v>0.2339394114738028</v>
       </c>
       <c r="I28" t="n">
         <v>0.0005488840370887735</v>
@@ -1554,7 +1554,7 @@
         <v>0.3125883282043356</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00040060688268658</v>
+        <v>0.0004006068826865801</v>
       </c>
       <c r="J31" t="n">
         <v>0.1325776890606602</v>
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1.853869233068906e-05</v>
+        <v>-1.853869233068907e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4210877559914472</v>
+        <v>0.4210877559914471</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1272766570289735</v>
+        <v>-0.1272766570289736</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3499024745872528</v>
+        <v>0.3499024745872525</v>
       </c>
       <c r="I32" t="n">
         <v>1.96601582964981e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1272766570289735</v>
+        <v>0.1272766570289736</v>
       </c>
     </row>
     <row r="33">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.001365862421246141</v>
+        <v>-0.001365862421246142</v>
       </c>
       <c r="F34" t="n">
         <v>9.408912622089767</v>
@@ -1659,7 +1659,7 @@
         <v>-0.1145259953379701</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3835766956220752</v>
+        <v>0.3835766956220753</v>
       </c>
       <c r="I34" t="n">
         <v>0.00155568582312916</v>
@@ -1695,7 +1695,7 @@
         <v>0.1120993502928315</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4107630132494438</v>
+        <v>0.410763013249444</v>
       </c>
       <c r="I35" t="n">
         <v>0.002555073653202462</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.004255041068344001</v>
+        <v>0.004255041068344</v>
       </c>
       <c r="F36" t="n">
         <v>82.52169122891678</v>
@@ -1731,7 +1731,7 @@
         <v>0.1111910144715949</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4102616011566597</v>
+        <v>0.41026160115666</v>
       </c>
       <c r="I36" t="n">
         <v>0.005128038740292183</v>
@@ -1767,10 +1767,10 @@
         <v>-0.1009043895662156</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4313538489738451</v>
+        <v>0.4313538489738449</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00236306962699504</v>
+        <v>0.002363069626995039</v>
       </c>
       <c r="J37" t="n">
         <v>0.1009043895662156</v>
@@ -1836,16 +1836,16 @@
         <v>7.932036232593447</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09167608042145921</v>
+        <v>0.09167608042145922</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4822538513604343</v>
+        <v>0.482253851360434</v>
       </c>
       <c r="I39" t="n">
         <v>0.001583197512433195</v>
       </c>
       <c r="J39" t="n">
-        <v>0.09167608042145921</v>
+        <v>0.09167608042145922</v>
       </c>
     </row>
     <row r="40">
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.0005759077958392805</v>
+        <v>0.0005759077958392804</v>
       </c>
       <c r="F42" t="n">
         <v>4.874803342995741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07612008231943768</v>
+        <v>0.07612008231943765</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5532166474967386</v>
+        <v>0.5532166474967388</v>
       </c>
       <c r="I42" t="n">
         <v>0.0009658883374479065</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07612008231943768</v>
+        <v>0.07612008231943765</v>
       </c>
     </row>
     <row r="43">
@@ -1974,22 +1974,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.04034830265267868</v>
+        <v>-0.04034830265267867</v>
       </c>
       <c r="F43" t="n">
         <v>69.23817088067263</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.07537988573561193</v>
+        <v>-0.0753798857356119</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5953390749303198</v>
+        <v>0.59533907493032</v>
       </c>
       <c r="I43" t="n">
         <v>0.0754826981609056</v>
       </c>
       <c r="J43" t="n">
-        <v>0.07537988573561193</v>
+        <v>0.0753798857356119</v>
       </c>
     </row>
     <row r="44">
@@ -2010,22 +2010,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.0004729962336145891</v>
+        <v>-0.0004729962336145893</v>
       </c>
       <c r="F44" t="n">
         <v>73.41924277846465</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07126920731730292</v>
+        <v>-0.07126920731730295</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5884215050281629</v>
+        <v>0.5884215050281627</v>
       </c>
       <c r="I44" t="n">
         <v>0.0008692325696407644</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07126920731730292</v>
+        <v>0.07126920731730295</v>
       </c>
     </row>
     <row r="45">
@@ -2046,22 +2046,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.0002197286337531893</v>
+        <v>0.0002197286337531904</v>
       </c>
       <c r="F45" t="n">
         <v>98.13517717998494</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03735516255486172</v>
+        <v>0.03735516255486191</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7807109670888044</v>
+        <v>0.7807109670888032</v>
       </c>
       <c r="I45" t="n">
         <v>0.0007854866180178788</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03735516255486172</v>
+        <v>0.03735516255486191</v>
       </c>
     </row>
     <row r="46">
@@ -2088,7 +2088,7 @@
         <v>16042.78645063455</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.00656520871804594</v>
+        <v>-0.006565208718045941</v>
       </c>
       <c r="H46" t="n">
         <v>0.9592723211037681</v>
@@ -2097,7 +2097,7 @@
         <v>1.892857492207998</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00656520871804594</v>
+        <v>0.006565208718045941</v>
       </c>
     </row>
     <row r="47">
@@ -2118,22 +2118,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.0001276773196174381</v>
+        <v>-0.0001276773196174377</v>
       </c>
       <c r="F47" t="n">
         <v>16.26008812321697</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.005426478605886495</v>
+        <v>-0.005426478605886477</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9674632878447627</v>
+        <v>0.9674632878447629</v>
       </c>
       <c r="I47" t="n">
         <v>0.003116390268107037</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005426478605886495</v>
+        <v>0.005426478605886477</v>
       </c>
     </row>
     <row r="48">
@@ -2154,13 +2154,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.288116066396606e-05</v>
+        <v>4.288116066396624e-05</v>
       </c>
       <c r="F48" t="n">
         <v>15.48561495579207</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002107350702190181</v>
+        <v>0.002107350702190189</v>
       </c>
       <c r="H48" t="n">
         <v>0.9874739303613687</v>
@@ -2169,7 +2169,7 @@
         <v>0.002719159842307782</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002107350702190181</v>
+        <v>0.002107350702190189</v>
       </c>
     </row>
     <row r="49">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-3.928803429045372e-07</v>
+        <v>-3.928803429045343e-07</v>
       </c>
       <c r="F49" t="n">
         <v>2.134968933415882</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0002552526014141151</v>
+        <v>-0.0002552526014141132</v>
       </c>
       <c r="H49" t="n">
         <v>0.9985384157688961</v>
@@ -2205,7 +2205,7 @@
         <v>0.0002134462048528713</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0002552526014141151</v>
+        <v>0.0002552526014141132</v>
       </c>
     </row>
   </sheetData>
